--- a/Input File/Education/EdnOnePageReports2011-12DataSentToRoopesh - Modified.xlsx
+++ b/Input File/Education/EdnOnePageReports2011-12DataSentToRoopesh - Modified.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="2011-12 One Page Reports" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2011-12 One Page Reports'!$A$1:$X$223</definedName>
+  </definedNames>
   <calcPr calcId="124519" calcMode="manual"/>
 </workbook>
 </file>
@@ -358,15 +361,6 @@
     <t>Hosakote</t>
   </si>
   <si>
-    <t>Hubli-Dharwad-Central</t>
-  </si>
-  <si>
-    <t>Hubli-Dharwad-East (SC)</t>
-  </si>
-  <si>
-    <t>Hubli-Dharwad-West</t>
-  </si>
-  <si>
     <t>Hukkeri</t>
   </si>
   <si>
@@ -589,9 +583,6 @@
     <t>Rajaji Nagar</t>
   </si>
   <si>
-    <t>Rajarajeshwarinagar</t>
-  </si>
-  <si>
     <t>Ramanagaram</t>
   </si>
   <si>
@@ -809,6 +800,18 @@
   </si>
   <si>
     <t>Number of Govt schools</t>
+  </si>
+  <si>
+    <t>Hubli-Dharwad Central</t>
+  </si>
+  <si>
+    <t>Hubli-Dharwad East (SC)</t>
+  </si>
+  <si>
+    <t>Hubli-Dharwad West</t>
+  </si>
+  <si>
+    <t>Rajarajeshwarin agar</t>
   </si>
 </sst>
 </file>
@@ -1261,10 +1264,10 @@
   <dimension ref="A1:X223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,84 +1293,84 @@
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="R1" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="S1" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="U1" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="V1" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="X1" s="12" t="s">
         <v>242</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="X1" s="12" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="4">
@@ -6914,7 +6917,7 @@
         <v>82</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>114</v>
+        <v>261</v>
       </c>
       <c r="D96" s="6">
         <v>44</v>
@@ -6973,7 +6976,7 @@
         <v>82</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>115</v>
+        <v>262</v>
       </c>
       <c r="D97" s="6">
         <v>73</v>
@@ -7032,7 +7035,7 @@
         <v>82</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>116</v>
+        <v>263</v>
       </c>
       <c r="D98" s="6">
         <v>68</v>
@@ -7091,7 +7094,7 @@
         <v>11</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D99" s="6">
         <v>181</v>
@@ -7150,7 +7153,7 @@
         <v>18</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D100" s="6">
         <v>260</v>
@@ -7209,7 +7212,7 @@
         <v>55</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D101" s="6">
         <v>332</v>
@@ -7268,7 +7271,7 @@
         <v>16</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D102" s="6">
         <v>348</v>
@@ -7327,7 +7330,7 @@
         <v>61</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D103" s="6">
         <v>269</v>
@@ -7386,7 +7389,7 @@
         <v>18</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D104" s="6">
         <v>185</v>
@@ -7445,7 +7448,7 @@
         <v>14</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D105" s="6">
         <v>17</v>
@@ -7504,7 +7507,7 @@
         <v>0</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D106" s="6">
         <v>274</v>
@@ -7563,7 +7566,7 @@
         <v>48</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D107" s="6">
         <v>48</v>
@@ -7622,7 +7625,7 @@
         <v>8</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D108" s="6">
         <v>355</v>
@@ -7681,7 +7684,7 @@
         <v>11</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D109" s="6">
         <v>230</v>
@@ -7740,7 +7743,7 @@
         <v>82</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D110" s="6">
         <v>231</v>
@@ -7799,7 +7802,7 @@
         <v>33</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D111" s="6">
         <v>146</v>
@@ -7858,7 +7861,7 @@
         <v>86</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D112" s="6">
         <v>239</v>
@@ -7917,7 +7920,7 @@
         <v>4</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D113" s="6">
         <v>336</v>
@@ -7976,7 +7979,7 @@
         <v>67</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D114" s="6">
         <v>78</v>
@@ -8035,7 +8038,7 @@
         <v>67</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D115" s="6">
         <v>177</v>
@@ -8094,7 +8097,7 @@
         <v>40</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D116" s="6">
         <v>341</v>
@@ -8153,7 +8156,7 @@
         <v>40</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D117" s="6">
         <v>353</v>
@@ -8212,7 +8215,7 @@
         <v>40</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D118" s="6">
         <v>182</v>
@@ -8271,7 +8274,7 @@
         <v>23</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D119" s="6">
         <v>296</v>
@@ -8330,7 +8333,7 @@
         <v>23</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D120" s="6">
         <v>204</v>
@@ -8389,7 +8392,7 @@
         <v>57</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D121" s="6">
         <v>190</v>
@@ -8507,7 +8510,7 @@
         <v>69</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D123" s="6">
         <v>396</v>
@@ -8566,7 +8569,7 @@
         <v>55</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D124" s="6">
         <v>43</v>
@@ -8622,10 +8625,10 @@
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D125" s="6">
         <v>264</v>
@@ -8681,10 +8684,10 @@
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D126" s="6">
         <v>374</v>
@@ -8743,7 +8746,7 @@
         <v>11</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D127" s="6">
         <v>181</v>
@@ -8802,7 +8805,7 @@
         <v>33</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D128" s="6">
         <v>259</v>
@@ -8861,7 +8864,7 @@
         <v>40</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D129" s="6">
         <v>313</v>
@@ -8920,7 +8923,7 @@
         <v>67</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D130" s="6">
         <v>158</v>
@@ -8979,7 +8982,7 @@
         <v>82</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D131" s="6">
         <v>178</v>
@@ -9038,7 +9041,7 @@
         <v>4</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D132" s="6">
         <v>456</v>
@@ -9097,7 +9100,7 @@
         <v>86</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D133" s="6">
         <v>257</v>
@@ -9156,7 +9159,7 @@
         <v>78</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D134" s="6">
         <v>273</v>
@@ -9212,10 +9215,10 @@
     </row>
     <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D135" s="6">
         <v>233</v>
@@ -9274,7 +9277,7 @@
         <v>69</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D136" s="6">
         <v>362</v>
@@ -9333,7 +9336,7 @@
         <v>55</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D137" s="6">
         <v>227</v>
@@ -9392,7 +9395,7 @@
         <v>4</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D138" s="6">
         <v>484</v>
@@ -9451,7 +9454,7 @@
         <v>51</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D139" s="6">
         <v>147</v>
@@ -9510,7 +9513,7 @@
         <v>48</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D140" s="6">
         <v>14</v>
@@ -9566,10 +9569,10 @@
     </row>
     <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D141" s="6">
         <v>301</v>
@@ -9628,7 +9631,7 @@
         <v>48</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D142" s="6">
         <v>27</v>
@@ -9687,7 +9690,7 @@
         <v>23</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D143" s="6">
         <v>341</v>
@@ -9743,10 +9746,10 @@
     </row>
     <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D144" s="6">
         <v>212</v>
@@ -9805,7 +9808,7 @@
         <v>25</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D145" s="6">
         <v>81</v>
@@ -9864,7 +9867,7 @@
         <v>25</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D146" s="6">
         <v>67</v>
@@ -9923,7 +9926,7 @@
         <v>25</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D147" s="6">
         <v>52</v>
@@ -9982,7 +9985,7 @@
         <v>78</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D148" s="6">
         <v>287</v>
@@ -10041,7 +10044,7 @@
         <v>86</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D149" s="6">
         <v>232</v>
@@ -10100,7 +10103,7 @@
         <v>61</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D150" s="6">
         <v>240</v>
@@ -10156,10 +10159,10 @@
     </row>
     <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D151" s="6">
         <v>281</v>
@@ -10218,7 +10221,7 @@
         <v>53</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D152" s="6">
         <v>341</v>
@@ -10277,7 +10280,7 @@
         <v>25</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D153" s="6">
         <v>135</v>
@@ -10336,7 +10339,7 @@
         <v>16</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D154" s="6">
         <v>234</v>
@@ -10395,7 +10398,7 @@
         <v>18</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D155" s="6">
         <v>210</v>
@@ -10454,7 +10457,7 @@
         <v>67</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D156" s="6">
         <v>366</v>
@@ -10513,7 +10516,7 @@
         <v>23</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D157" s="6">
         <v>414</v>
@@ -10569,10 +10572,10 @@
     </row>
     <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D158" s="6">
         <v>454</v>
@@ -10631,7 +10634,7 @@
         <v>16</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D159" s="6">
         <v>287</v>
@@ -10690,7 +10693,7 @@
         <v>57</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D160" s="6">
         <v>211</v>
@@ -10749,7 +10752,7 @@
         <v>55</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D161" s="6">
         <v>65</v>
@@ -10808,7 +10811,7 @@
         <v>18</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D162" s="6">
         <v>165</v>
@@ -10867,7 +10870,7 @@
         <v>82</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D163" s="6">
         <v>169</v>
@@ -10926,7 +10929,7 @@
         <v>20</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D164" s="6">
         <v>389</v>
@@ -10985,7 +10988,7 @@
         <v>11</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D165" s="6">
         <v>198</v>
@@ -11044,7 +11047,7 @@
         <v>14</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D166" s="6">
         <v>14</v>
@@ -11103,7 +11106,7 @@
         <v>53</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D167" s="6">
         <v>270</v>
@@ -11162,7 +11165,7 @@
         <v>55</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D168" s="6">
         <v>322</v>
@@ -11221,7 +11224,7 @@
         <v>48</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D169" s="6">
         <v>26</v>
@@ -11280,7 +11283,7 @@
         <v>25</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D170" s="6">
         <v>158</v>
@@ -11339,7 +11342,7 @@
         <v>78</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D171" s="6">
         <v>86</v>
@@ -11398,7 +11401,7 @@
         <v>78</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D172" s="6">
         <v>250</v>
@@ -11457,7 +11460,7 @@
         <v>51</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D173" s="6">
         <v>21</v>
@@ -11516,7 +11519,7 @@
         <v>4</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>191</v>
+        <v>264</v>
       </c>
       <c r="D174" s="6">
         <v>33</v>
@@ -11575,7 +11578,7 @@
         <v>4</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D175" s="6">
         <v>324</v>
@@ -11634,7 +11637,7 @@
         <v>6</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D176" s="6">
         <v>220</v>
@@ -11693,7 +11696,7 @@
         <v>46</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D177" s="6">
         <v>176</v>
@@ -11752,7 +11755,7 @@
         <v>11</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D178" s="6">
         <v>239</v>
@@ -11811,7 +11814,7 @@
         <v>46</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D179" s="6">
         <v>219</v>
@@ -11870,7 +11873,7 @@
         <v>37</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D180" s="6">
         <v>415</v>
@@ -11929,7 +11932,7 @@
         <v>8</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D181" s="6">
         <v>477</v>
@@ -11988,7 +11991,7 @@
         <v>33</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D182" s="6">
         <v>191</v>
@@ -12047,7 +12050,7 @@
         <v>51</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D183" s="6">
         <v>28</v>
@@ -12106,7 +12109,7 @@
         <v>6</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D184" s="6">
         <v>186</v>
@@ -12165,7 +12168,7 @@
         <v>0</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D185" s="6">
         <v>276</v>
@@ -12224,7 +12227,7 @@
         <v>78</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D186" s="6">
         <v>263</v>
@@ -12283,7 +12286,7 @@
         <v>51</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D187" s="6">
         <v>38</v>
@@ -12342,7 +12345,7 @@
         <v>8</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D188" s="6">
         <v>398</v>
@@ -12401,7 +12404,7 @@
         <v>82</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D189" s="6">
         <v>262</v>
@@ -12460,7 +12463,7 @@
         <v>37</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D190" s="6">
         <v>262</v>
@@ -12578,7 +12581,7 @@
         <v>37</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D192" s="6">
         <v>343</v>
@@ -12637,7 +12640,7 @@
         <v>46</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D193" s="6">
         <v>217</v>
@@ -12696,7 +12699,7 @@
         <v>51</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D194" s="6">
         <v>23</v>
@@ -12755,7 +12758,7 @@
         <v>78</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D195" s="6">
         <v>338</v>
@@ -12811,10 +12814,10 @@
     </row>
     <row r="196" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D196" s="6">
         <v>201</v>
@@ -12873,7 +12876,7 @@
         <v>23</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D197" s="6">
         <v>345</v>
@@ -12932,7 +12935,7 @@
         <v>16</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D198" s="6">
         <v>280</v>
@@ -12991,7 +12994,7 @@
         <v>86</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D199" s="6">
         <v>223</v>
@@ -13050,7 +13053,7 @@
         <v>53</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D200" s="6">
         <v>394</v>
@@ -13109,7 +13112,7 @@
         <v>86</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D201" s="6">
         <v>197</v>
@@ -13168,7 +13171,7 @@
         <v>37</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D202" s="6">
         <v>381</v>
@@ -13227,7 +13230,7 @@
         <v>67</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D203" s="6">
         <v>367</v>
@@ -13286,7 +13289,7 @@
         <v>23</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D204" s="6">
         <v>420</v>
@@ -13345,7 +13348,7 @@
         <v>25</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D205" s="6">
         <v>252</v>
@@ -13404,7 +13407,7 @@
         <v>57</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D206" s="6">
         <v>217</v>
@@ -13463,7 +13466,7 @@
         <v>67</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D207" s="6">
         <v>296</v>
@@ -13522,7 +13525,7 @@
         <v>18</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D208" s="6">
         <v>185</v>
@@ -13581,7 +13584,7 @@
         <v>69</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D209" s="6">
         <v>301</v>
@@ -13640,7 +13643,7 @@
         <v>37</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D210" s="6">
         <v>413</v>
@@ -13699,7 +13702,7 @@
         <v>69</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D211" s="6">
         <v>81</v>
@@ -13758,7 +13761,7 @@
         <v>69</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D212" s="6">
         <v>377</v>
@@ -13817,7 +13820,7 @@
         <v>69</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D213" s="6">
         <v>401</v>
@@ -13876,7 +13879,7 @@
         <v>67</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D214" s="6">
         <v>76</v>
@@ -13935,7 +13938,7 @@
         <v>57</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D215" s="6">
         <v>204</v>
@@ -13994,7 +13997,7 @@
         <v>14</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D216" s="6">
         <v>22</v>
@@ -14053,7 +14056,7 @@
         <v>33</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D217" s="6">
         <v>128</v>
@@ -14112,7 +14115,7 @@
         <v>55</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D218" s="6">
         <v>248</v>
@@ -14171,7 +14174,7 @@
         <v>78</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D219" s="6">
         <v>207</v>
@@ -14230,7 +14233,7 @@
         <v>20</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D220" s="6">
         <v>189</v>
@@ -14289,7 +14292,7 @@
         <v>86</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D221" s="6">
         <v>241</v>
@@ -14348,7 +14351,7 @@
         <v>11</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D222" s="6">
         <v>205</v>
@@ -14407,7 +14410,7 @@
         <v>48</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D223" s="6">
         <v>208</v>
@@ -14462,6 +14465,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:X223"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>